--- a/BacktestingEngine/Template/HullRsiWin_backtesting_parameter_plot.xlsx
+++ b/BacktestingEngine/Template/HullRsiWin_backtesting_parameter_plot.xlsx
@@ -27,10 +27,6 @@
     <t>sec_id</t>
   </si>
   <si>
-    <t>K_MIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SHFE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,6 +44,10 @@
   </si>
   <si>
     <t>AU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -428,10 +428,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>900</v>
@@ -442,10 +442,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>1800</v>
@@ -456,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D4">
         <v>3600</v>
@@ -470,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D5">
         <v>1800</v>
@@ -484,10 +484,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D6">
         <v>3600</v>
@@ -498,10 +498,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1800</v>
@@ -512,10 +512,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>3600</v>
